--- a/Основы Машинного обучения/Лаб2/Data2.xlsx
+++ b/Основы Машинного обучения/Лаб2/Data2.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AntonGit\LabsAntonAndrew\Основы Машинного обучения\Лаб2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
   <si>
     <t>uzel</t>
   </si>
@@ -31,7 +36,10 @@
     <t>u</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Q</t>
   </si>
   <si>
     <t>u(R)</t>
@@ -42,18 +50,12 @@
   <si>
     <t>u(Q)</t>
   </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,79 +114,126 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>u(R)</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet1'!$H$2</c:f>
+              <c:f>Sheet1!$I$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.001566102518099395</c:v>
+                  <c:v>0.18397036822190091</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DF24-46F9-98FF-64D15A262BDA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>u(Q)</c:v>
+            <c:v>u(T)</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet1'!$I$2</c:f>
+              <c:f>Sheet1!$J$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.1680100272474517</c:v>
+                  <c:v>0.18841720667514111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DF24-46F9-98FF-64D15A262BDA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>u(T)</c:v>
+            <c:v>u(Q)</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet1'!$J$2</c:f>
+              <c:f>Sheet1!$K$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.001546384811500063</c:v>
+                  <c:v>0.627612425102958</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DF24-46F9-98FF-64D15A262BDA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="50010001"/>
         <c:axId val="50010002"/>
       </c:barChart>
@@ -193,22 +242,29 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50010002"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="50010002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50010001"/>
         <c:crosses val="autoZero"/>
@@ -218,8 +274,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -265,9 +324,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -305,9 +364,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -339,9 +398,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -373,9 +433,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -548,14 +609,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -571,20 +634,17 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -598,25 +658,22 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>24.83948469674844</v>
+        <v>4.1231056256176606</v>
       </c>
       <c r="F2">
-        <v>0.001618122977346278</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <v>0.001566102518099395</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="I2">
-        <v>0.1680100272474517</v>
+        <v>0.18397036822190091</v>
       </c>
       <c r="J2">
-        <v>0.001546384811500063</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>0.18841720667514111</v>
+      </c>
+      <c r="K2">
+        <v>0.627612425102958</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -630,25 +687,13 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>25.49509756796392</v>
+        <v>3.16227766016838</v>
       </c>
       <c r="F3">
-        <v>0.001536098310291859</v>
-      </c>
-      <c r="G3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>9.0909090909090898E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -662,25 +707,13 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>24.83948469674844</v>
+        <v>4.1231056256176606</v>
       </c>
       <c r="F4">
-        <v>0.001618122977346278</v>
-      </c>
-      <c r="G4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -694,25 +727,13 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>25.61249694973139</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>0.0015220700152207</v>
-      </c>
-      <c r="G5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>5.8823529411764712E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -726,25 +747,13 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <v>25.49509756796392</v>
+        <v>3.16227766016838</v>
       </c>
       <c r="F6">
-        <v>0.001536098310291859</v>
-      </c>
-      <c r="G6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>9.0909090909090898E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -755,28 +764,16 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>24.08318915758459</v>
+        <v>4.4721359549995796</v>
       </c>
       <c r="F7">
-        <v>0.001721170395869191</v>
-      </c>
-      <c r="G7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>4.7619047619047609E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -787,28 +784,16 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>24.75883680627989</v>
+        <v>3.6055512754639891</v>
       </c>
       <c r="F8">
-        <v>0.001628664495114007</v>
-      </c>
-      <c r="G8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>7.1428571428571438E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -819,28 +804,16 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>25.45584412271571</v>
+        <v>2.8284271247461898</v>
       </c>
       <c r="F9">
-        <v>0.001540832049306626</v>
-      </c>
-      <c r="G9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -851,28 +824,16 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>24.75883680627989</v>
+        <v>3.6055512754639891</v>
       </c>
       <c r="F10">
-        <v>0.001628664495114007</v>
-      </c>
-      <c r="G10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>7.1428571428571438E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -883,28 +844,16 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E11">
-        <v>25.45584412271571</v>
+        <v>2.8284271247461898</v>
       </c>
       <c r="F11">
-        <v>0.001540832049306626</v>
-      </c>
-      <c r="G11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -915,28 +864,16 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E12">
-        <v>26.1725046566048</v>
+        <v>2.2360679774997898</v>
       </c>
       <c r="F12">
-        <v>0.001457725947521866</v>
-      </c>
-      <c r="G12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" t="s">
-        <v>5</v>
-      </c>
-      <c r="J12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>0.1666666666666666</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -947,28 +884,16 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E13">
-        <v>26.87005768508881</v>
+        <v>1.4142135623730949</v>
       </c>
       <c r="F13">
-        <v>0.001383125864453665</v>
-      </c>
-      <c r="G13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -979,28 +904,16 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E14">
-        <v>26.90724809414742</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.001379310344827586</v>
-      </c>
-      <c r="G14" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1011,28 +924,16 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E15">
-        <v>26.87005768508881</v>
+        <v>1.4142135623730949</v>
       </c>
       <c r="F15">
-        <v>0.001383125864453665</v>
-      </c>
-      <c r="G15" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1043,28 +944,16 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E16">
-        <v>26.1725046566048</v>
+        <v>2.2360679774997898</v>
       </c>
       <c r="F16">
-        <v>0.001457725947521866</v>
-      </c>
-      <c r="G16" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16" t="s">
-        <v>5</v>
-      </c>
-      <c r="I16" t="s">
-        <v>5</v>
-      </c>
-      <c r="J16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>0.1666666666666666</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1075,57 +964,33 @@
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E17">
-        <v>21.21320343559643</v>
+        <v>7.0710678118654764</v>
       </c>
       <c r="F17">
-        <v>0.002217294900221729</v>
-      </c>
-      <c r="G17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>1.9607843137254902E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
         <v>1</v>
-      </c>
-      <c r="G18" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
